--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>P2ry14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.138331</v>
+        <v>0.155514</v>
       </c>
       <c r="H2">
-        <v>0.4149930000000001</v>
+        <v>0.466542</v>
       </c>
       <c r="I2">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="J2">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01289566666666667</v>
+        <v>0.29907</v>
       </c>
       <c r="N2">
-        <v>0.038687</v>
+        <v>0.8972100000000001</v>
       </c>
       <c r="O2">
-        <v>0.0006132253757406253</v>
+        <v>0.03855164145791815</v>
       </c>
       <c r="P2">
-        <v>0.0006132253757406253</v>
+        <v>0.03855164145791815</v>
       </c>
       <c r="Q2">
-        <v>0.001783870465666667</v>
+        <v>0.04650957198</v>
       </c>
       <c r="R2">
-        <v>0.016054834191</v>
+        <v>0.41858614782</v>
       </c>
       <c r="S2">
-        <v>9.691650777140655E-05</v>
+        <v>0.005039768165961355</v>
       </c>
       <c r="T2">
-        <v>9.691650777140656E-05</v>
+        <v>0.005039768165961356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.138331</v>
+        <v>0.155514</v>
       </c>
       <c r="H3">
-        <v>0.4149930000000001</v>
+        <v>0.466542</v>
       </c>
       <c r="I3">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="J3">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.428691</v>
       </c>
       <c r="O3">
-        <v>0.03849703908374583</v>
+        <v>0.1043568670033467</v>
       </c>
       <c r="P3">
-        <v>0.03849703908374583</v>
+        <v>0.1043568670033467</v>
       </c>
       <c r="Q3">
-        <v>0.1119877515736667</v>
+        <v>0.125898484058</v>
       </c>
       <c r="R3">
-        <v>1.007889764163</v>
+        <v>1.133086356522</v>
       </c>
       <c r="S3">
-        <v>0.006084220802229305</v>
+        <v>0.01364233522448128</v>
       </c>
       <c r="T3">
-        <v>0.006084220802229308</v>
+        <v>0.01364233522448128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.138331</v>
+        <v>0.155514</v>
       </c>
       <c r="H4">
-        <v>0.4149930000000001</v>
+        <v>0.466542</v>
       </c>
       <c r="I4">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="J4">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.976489666666667</v>
+        <v>0.6929466666666667</v>
       </c>
       <c r="N4">
-        <v>17.929469</v>
+        <v>2.07884</v>
       </c>
       <c r="O4">
-        <v>0.284198965139579</v>
+        <v>0.08932434360782711</v>
       </c>
       <c r="P4">
-        <v>0.284198965139579</v>
+        <v>0.08932434360782711</v>
       </c>
       <c r="Q4">
-        <v>0.8267337920796667</v>
+        <v>0.10776290792</v>
       </c>
       <c r="R4">
-        <v>7.440604128717001</v>
+        <v>0.9698661712800001</v>
       </c>
       <c r="S4">
-        <v>0.04491590254286176</v>
+        <v>0.01167716772453172</v>
       </c>
       <c r="T4">
-        <v>0.04491590254286177</v>
+        <v>0.01167716772453172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.138331</v>
+        <v>0.155514</v>
       </c>
       <c r="H5">
-        <v>0.4149930000000001</v>
+        <v>0.466542</v>
       </c>
       <c r="I5">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="J5">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.022794333333333</v>
+        <v>0.3776933333333334</v>
       </c>
       <c r="N5">
-        <v>3.068383</v>
+        <v>1.13308</v>
       </c>
       <c r="O5">
-        <v>0.04863675958567858</v>
+        <v>0.04868658831615552</v>
       </c>
       <c r="P5">
-        <v>0.04863675958567858</v>
+        <v>0.04868658831615552</v>
       </c>
       <c r="Q5">
-        <v>0.1414841629243334</v>
+        <v>0.05873660104000001</v>
       </c>
       <c r="R5">
-        <v>1.273357466319</v>
+        <v>0.52862940936</v>
       </c>
       <c r="S5">
-        <v>0.007686741408358151</v>
+        <v>0.006364686654726868</v>
       </c>
       <c r="T5">
-        <v>0.007686741408358152</v>
+        <v>0.006364686654726868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.138331</v>
+        <v>0.155514</v>
       </c>
       <c r="H6">
-        <v>0.4149930000000001</v>
+        <v>0.466542</v>
       </c>
       <c r="I6">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="J6">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.636357666666667</v>
+        <v>4.874378333333333</v>
       </c>
       <c r="N6">
-        <v>7.909073</v>
+        <v>14.623135</v>
       </c>
       <c r="O6">
-        <v>0.1253662538368195</v>
+        <v>0.6283321156816507</v>
       </c>
       <c r="P6">
-        <v>0.1253662538368195</v>
+        <v>0.6283321156816508</v>
       </c>
       <c r="Q6">
-        <v>0.3646899923876667</v>
+        <v>0.7580340721300001</v>
       </c>
       <c r="R6">
-        <v>3.282209931489001</v>
+        <v>6.822306649170001</v>
       </c>
       <c r="S6">
-        <v>0.0198133671483734</v>
+        <v>0.08214042449321263</v>
       </c>
       <c r="T6">
-        <v>0.0198133671483734</v>
+        <v>0.08214042449321264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.138331</v>
+        <v>0.155514</v>
       </c>
       <c r="H7">
-        <v>0.4149930000000001</v>
+        <v>0.466542</v>
       </c>
       <c r="I7">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="J7">
-        <v>0.1580438638149233</v>
+        <v>0.1307277193751301</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.571144</v>
+        <v>0.7039943333333333</v>
       </c>
       <c r="N7">
-        <v>31.713432</v>
+        <v>2.111983</v>
       </c>
       <c r="O7">
-        <v>0.5026877569784364</v>
+        <v>0.09074844393310187</v>
       </c>
       <c r="P7">
-        <v>0.5026877569784365</v>
+        <v>0.09074844393310189</v>
       </c>
       <c r="Q7">
-        <v>1.462316920664</v>
+        <v>0.109480974754</v>
       </c>
       <c r="R7">
-        <v>13.160852285976</v>
+        <v>0.985328772786</v>
       </c>
       <c r="S7">
-        <v>0.07944671540532926</v>
+        <v>0.01186333711221627</v>
       </c>
       <c r="T7">
-        <v>0.07944671540532929</v>
+        <v>0.01186333711221627</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08079</v>
+      </c>
+      <c r="H8">
+        <v>0.24237</v>
+      </c>
+      <c r="I8">
+        <v>0.06791345118971129</v>
+      </c>
+      <c r="J8">
+        <v>0.0679134511897113</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.2649496666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.794849</v>
-      </c>
-      <c r="I8">
-        <v>0.3027063278402961</v>
-      </c>
-      <c r="J8">
-        <v>0.3027063278402961</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.01289566666666667</v>
+        <v>0.29907</v>
       </c>
       <c r="N8">
-        <v>0.038687</v>
+        <v>0.8972100000000001</v>
       </c>
       <c r="O8">
-        <v>0.0006132253757406253</v>
+        <v>0.03855164145791815</v>
       </c>
       <c r="P8">
-        <v>0.0006132253757406253</v>
+        <v>0.03855164145791815</v>
       </c>
       <c r="Q8">
-        <v>0.003416702584777778</v>
+        <v>0.0241618653</v>
       </c>
       <c r="R8">
-        <v>0.030750323263</v>
+        <v>0.2174567877</v>
       </c>
       <c r="S8">
-        <v>0.0001856272016289304</v>
+        <v>0.002618175020435574</v>
       </c>
       <c r="T8">
-        <v>0.0001856272016289304</v>
+        <v>0.002618175020435575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2649496666666667</v>
+        <v>0.08079</v>
       </c>
       <c r="H9">
-        <v>0.794849</v>
+        <v>0.24237</v>
       </c>
       <c r="I9">
-        <v>0.3027063278402961</v>
+        <v>0.06791345118971129</v>
       </c>
       <c r="J9">
-        <v>0.3027063278402961</v>
+        <v>0.0679134511897113</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.428691</v>
       </c>
       <c r="O9">
-        <v>0.03849703908374583</v>
+        <v>0.1043568670033467</v>
       </c>
       <c r="P9">
-        <v>0.03849703908374583</v>
+        <v>0.1043568670033467</v>
       </c>
       <c r="Q9">
-        <v>0.2144936236287778</v>
+        <v>0.06540464863000001</v>
       </c>
       <c r="R9">
-        <v>1.930442612659</v>
+        <v>0.58864183767</v>
       </c>
       <c r="S9">
-        <v>0.01165329733376505</v>
+        <v>0.007087234993542978</v>
       </c>
       <c r="T9">
-        <v>0.01165329733376506</v>
+        <v>0.007087234993542979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2649496666666667</v>
+        <v>0.08079</v>
       </c>
       <c r="H10">
-        <v>0.794849</v>
+        <v>0.24237</v>
       </c>
       <c r="I10">
-        <v>0.3027063278402961</v>
+        <v>0.06791345118971129</v>
       </c>
       <c r="J10">
-        <v>0.3027063278402961</v>
+        <v>0.0679134511897113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.976489666666667</v>
+        <v>0.6929466666666667</v>
       </c>
       <c r="N10">
-        <v>17.929469</v>
+        <v>2.07884</v>
       </c>
       <c r="O10">
-        <v>0.284198965139579</v>
+        <v>0.08932434360782711</v>
       </c>
       <c r="P10">
-        <v>0.284198965139579</v>
+        <v>0.08932434360782711</v>
       </c>
       <c r="Q10">
-        <v>1.583468945020111</v>
+        <v>0.05598316120000001</v>
       </c>
       <c r="R10">
-        <v>14.251220505181</v>
+        <v>0.5038484508</v>
       </c>
       <c r="S10">
-        <v>0.08602882511341427</v>
+        <v>0.006066324449663166</v>
       </c>
       <c r="T10">
-        <v>0.08602882511341428</v>
+        <v>0.006066324449663167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2649496666666667</v>
+        <v>0.08079</v>
       </c>
       <c r="H11">
-        <v>0.794849</v>
+        <v>0.24237</v>
       </c>
       <c r="I11">
-        <v>0.3027063278402961</v>
+        <v>0.06791345118971129</v>
       </c>
       <c r="J11">
-        <v>0.3027063278402961</v>
+        <v>0.0679134511897113</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.022794333333333</v>
+        <v>0.3776933333333334</v>
       </c>
       <c r="N11">
-        <v>3.068383</v>
+        <v>1.13308</v>
       </c>
       <c r="O11">
-        <v>0.04863675958567858</v>
+        <v>0.04868658831615552</v>
       </c>
       <c r="P11">
-        <v>0.04863675958567858</v>
+        <v>0.04868658831615552</v>
       </c>
       <c r="Q11">
-        <v>0.2709890176852223</v>
+        <v>0.0305138444</v>
       </c>
       <c r="R11">
-        <v>2.438901159167</v>
+        <v>0.2746245996</v>
       </c>
       <c r="S11">
-        <v>0.01472265489223208</v>
+        <v>0.003306474239202796</v>
       </c>
       <c r="T11">
-        <v>0.01472265489223208</v>
+        <v>0.003306474239202797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2649496666666667</v>
+        <v>0.08079</v>
       </c>
       <c r="H12">
-        <v>0.794849</v>
+        <v>0.24237</v>
       </c>
       <c r="I12">
-        <v>0.3027063278402961</v>
+        <v>0.06791345118971129</v>
       </c>
       <c r="J12">
-        <v>0.3027063278402961</v>
+        <v>0.0679134511897113</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.636357666666667</v>
+        <v>4.874378333333333</v>
       </c>
       <c r="N12">
-        <v>7.909073</v>
+        <v>14.623135</v>
       </c>
       <c r="O12">
-        <v>0.1253662538368195</v>
+        <v>0.6283321156816507</v>
       </c>
       <c r="P12">
-        <v>0.1253662538368195</v>
+        <v>0.6283321156816508</v>
       </c>
       <c r="Q12">
-        <v>0.6985020849974445</v>
+        <v>0.39380102555</v>
       </c>
       <c r="R12">
-        <v>6.286518764977</v>
+        <v>3.54420922995</v>
       </c>
       <c r="S12">
-        <v>0.03794915833403804</v>
+        <v>0.04267220246927381</v>
       </c>
       <c r="T12">
-        <v>0.03794915833403804</v>
+        <v>0.04267220246927383</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2649496666666667</v>
+        <v>0.08079</v>
       </c>
       <c r="H13">
-        <v>0.794849</v>
+        <v>0.24237</v>
       </c>
       <c r="I13">
-        <v>0.3027063278402961</v>
+        <v>0.06791345118971129</v>
       </c>
       <c r="J13">
-        <v>0.3027063278402961</v>
+        <v>0.0679134511897113</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.571144</v>
+        <v>0.7039943333333333</v>
       </c>
       <c r="N13">
-        <v>31.713432</v>
+        <v>2.111983</v>
       </c>
       <c r="O13">
-        <v>0.5026877569784364</v>
+        <v>0.09074844393310187</v>
       </c>
       <c r="P13">
-        <v>0.5026877569784365</v>
+        <v>0.09074844393310189</v>
       </c>
       <c r="Q13">
-        <v>2.800821079085334</v>
+        <v>0.05687570219</v>
       </c>
       <c r="R13">
-        <v>25.207389711768</v>
+        <v>0.5118813197099999</v>
       </c>
       <c r="S13">
-        <v>0.1521667649652176</v>
+        <v>0.006163040017592965</v>
       </c>
       <c r="T13">
-        <v>0.1521667649652177</v>
+        <v>0.006163040017592968</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5892876666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.767863</v>
+      </c>
+      <c r="I14">
+        <v>0.4953652579139191</v>
+      </c>
+      <c r="J14">
+        <v>0.4953652579139191</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.471989</v>
-      </c>
-      <c r="H14">
-        <v>1.415967</v>
-      </c>
-      <c r="I14">
-        <v>0.5392498083447805</v>
-      </c>
-      <c r="J14">
-        <v>0.5392498083447806</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M14">
-        <v>0.01289566666666667</v>
+        <v>0.29907</v>
       </c>
       <c r="N14">
-        <v>0.038687</v>
+        <v>0.8972100000000001</v>
       </c>
       <c r="O14">
-        <v>0.0006132253757406253</v>
+        <v>0.03855164145791815</v>
       </c>
       <c r="P14">
-        <v>0.0006132253757406253</v>
+        <v>0.03855164145791815</v>
       </c>
       <c r="Q14">
-        <v>0.006086612814333334</v>
+        <v>0.17623826247</v>
       </c>
       <c r="R14">
-        <v>0.05477951532900001</v>
+        <v>1.58614436223</v>
       </c>
       <c r="S14">
-        <v>0.0003306816663402882</v>
+        <v>0.01909714381380656</v>
       </c>
       <c r="T14">
-        <v>0.0003306816663402883</v>
+        <v>0.01909714381380656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.471989</v>
+        <v>0.5892876666666667</v>
       </c>
       <c r="H15">
-        <v>1.415967</v>
+        <v>1.767863</v>
       </c>
       <c r="I15">
-        <v>0.5392498083447805</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="J15">
-        <v>0.5392498083447806</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.428691</v>
       </c>
       <c r="O15">
-        <v>0.03849703908374583</v>
+        <v>0.1043568670033467</v>
       </c>
       <c r="P15">
-        <v>0.03849703908374583</v>
+        <v>0.1043568670033467</v>
       </c>
       <c r="Q15">
-        <v>0.3821051454663334</v>
+        <v>0.4770658841481111</v>
       </c>
       <c r="R15">
-        <v>3.438946309197001</v>
+        <v>4.293592957333</v>
       </c>
       <c r="S15">
-        <v>0.02075952094775146</v>
+        <v>0.05169476633820139</v>
       </c>
       <c r="T15">
-        <v>0.02075952094775147</v>
+        <v>0.05169476633820139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.471989</v>
+        <v>0.5892876666666667</v>
       </c>
       <c r="H16">
-        <v>1.415967</v>
+        <v>1.767863</v>
       </c>
       <c r="I16">
-        <v>0.5392498083447805</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="J16">
-        <v>0.5392498083447806</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.976489666666667</v>
+        <v>0.6929466666666667</v>
       </c>
       <c r="N16">
-        <v>17.929469</v>
+        <v>2.07884</v>
       </c>
       <c r="O16">
-        <v>0.284198965139579</v>
+        <v>0.08932434360782711</v>
       </c>
       <c r="P16">
-        <v>0.284198965139579</v>
+        <v>0.08932434360782711</v>
       </c>
       <c r="Q16">
-        <v>2.820837381280334</v>
+        <v>0.4083449243244445</v>
       </c>
       <c r="R16">
-        <v>25.38753643152301</v>
+        <v>3.67510431892</v>
       </c>
       <c r="S16">
-        <v>0.1532542374833029</v>
+        <v>0.04424817650928281</v>
       </c>
       <c r="T16">
-        <v>0.153254237483303</v>
+        <v>0.04424817650928281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.471989</v>
+        <v>0.5892876666666667</v>
       </c>
       <c r="H17">
-        <v>1.415967</v>
+        <v>1.767863</v>
       </c>
       <c r="I17">
-        <v>0.5392498083447805</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="J17">
-        <v>0.5392498083447806</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.022794333333333</v>
+        <v>0.3776933333333334</v>
       </c>
       <c r="N17">
-        <v>3.068383</v>
+        <v>1.13308</v>
       </c>
       <c r="O17">
-        <v>0.04863675958567858</v>
+        <v>0.04868658831615552</v>
       </c>
       <c r="P17">
-        <v>0.04863675958567858</v>
+        <v>0.04868658831615552</v>
       </c>
       <c r="Q17">
-        <v>0.4827476745956668</v>
+        <v>0.2225700231155556</v>
       </c>
       <c r="R17">
-        <v>4.344729071361001</v>
+        <v>2.00313020804</v>
       </c>
       <c r="S17">
-        <v>0.02622736328508834</v>
+        <v>0.02411764437818118</v>
       </c>
       <c r="T17">
-        <v>0.02622736328508835</v>
+        <v>0.02411764437818118</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.471989</v>
+        <v>0.5892876666666667</v>
       </c>
       <c r="H18">
-        <v>1.415967</v>
+        <v>1.767863</v>
       </c>
       <c r="I18">
-        <v>0.5392498083447805</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="J18">
-        <v>0.5392498083447806</v>
+        <v>0.4953652579139191</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.636357666666667</v>
+        <v>4.874378333333333</v>
       </c>
       <c r="N18">
-        <v>7.909073</v>
+        <v>14.623135</v>
       </c>
       <c r="O18">
-        <v>0.1253662538368195</v>
+        <v>0.6283321156816507</v>
       </c>
       <c r="P18">
-        <v>0.1253662538368195</v>
+        <v>0.6283321156816508</v>
       </c>
       <c r="Q18">
-        <v>1.244331818732333</v>
+        <v>2.872411034500556</v>
       </c>
       <c r="R18">
-        <v>11.198986368591</v>
+        <v>25.851699310505</v>
       </c>
       <c r="S18">
-        <v>0.067603728354408</v>
+        <v>0.3112539005402394</v>
       </c>
       <c r="T18">
-        <v>0.06760372835440802</v>
+        <v>0.3112539005402394</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5892876666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.767863</v>
+      </c>
+      <c r="I19">
+        <v>0.4953652579139191</v>
+      </c>
+      <c r="J19">
+        <v>0.4953652579139191</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7039943333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.111983</v>
+      </c>
+      <c r="O19">
+        <v>0.09074844393310187</v>
+      </c>
+      <c r="P19">
+        <v>0.09074844393310189</v>
+      </c>
+      <c r="Q19">
+        <v>0.4148551780365555</v>
+      </c>
+      <c r="R19">
+        <v>3.733696602329</v>
+      </c>
+      <c r="S19">
+        <v>0.04495362633420784</v>
+      </c>
+      <c r="T19">
+        <v>0.04495362633420785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3640106666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.092032</v>
+      </c>
+      <c r="I20">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="J20">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.29907</v>
+      </c>
+      <c r="N20">
+        <v>0.8972100000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.03855164145791815</v>
+      </c>
+      <c r="P20">
+        <v>0.03855164145791815</v>
+      </c>
+      <c r="Q20">
+        <v>0.10886467008</v>
+      </c>
+      <c r="R20">
+        <v>0.9797820307200001</v>
+      </c>
+      <c r="S20">
+        <v>0.01179655445771466</v>
+      </c>
+      <c r="T20">
+        <v>0.01179655445771466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3640106666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.092032</v>
+      </c>
+      <c r="I21">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="J21">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8095636666666667</v>
+      </c>
+      <c r="N21">
+        <v>2.428691</v>
+      </c>
+      <c r="O21">
+        <v>0.1043568670033467</v>
+      </c>
+      <c r="P21">
+        <v>0.1043568670033467</v>
+      </c>
+      <c r="Q21">
+        <v>0.2946898100124445</v>
+      </c>
+      <c r="R21">
+        <v>2.652208290112001</v>
+      </c>
+      <c r="S21">
+        <v>0.03193253044712104</v>
+      </c>
+      <c r="T21">
+        <v>0.03193253044712104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3640106666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.092032</v>
+      </c>
+      <c r="I22">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="J22">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6929466666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.07884</v>
+      </c>
+      <c r="O22">
+        <v>0.08932434360782711</v>
+      </c>
+      <c r="P22">
+        <v>0.08932434360782711</v>
+      </c>
+      <c r="Q22">
+        <v>0.2522399780977778</v>
+      </c>
+      <c r="R22">
+        <v>2.27015980288</v>
+      </c>
+      <c r="S22">
+        <v>0.02733267492434941</v>
+      </c>
+      <c r="T22">
+        <v>0.02733267492434941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.471989</v>
-      </c>
-      <c r="H19">
-        <v>1.415967</v>
-      </c>
-      <c r="I19">
-        <v>0.5392498083447805</v>
-      </c>
-      <c r="J19">
-        <v>0.5392498083447806</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10.571144</v>
-      </c>
-      <c r="N19">
-        <v>31.713432</v>
-      </c>
-      <c r="O19">
-        <v>0.5026877569784364</v>
-      </c>
-      <c r="P19">
-        <v>0.5026877569784365</v>
-      </c>
-      <c r="Q19">
-        <v>4.989463685416001</v>
-      </c>
-      <c r="R19">
-        <v>44.90517316874401</v>
-      </c>
-      <c r="S19">
-        <v>0.2710742766078894</v>
-      </c>
-      <c r="T19">
-        <v>0.2710742766078895</v>
+      <c r="G23">
+        <v>0.3640106666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.092032</v>
+      </c>
+      <c r="I23">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="J23">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3776933333333334</v>
+      </c>
+      <c r="N23">
+        <v>1.13308</v>
+      </c>
+      <c r="O23">
+        <v>0.04868658831615552</v>
+      </c>
+      <c r="P23">
+        <v>0.04868658831615552</v>
+      </c>
+      <c r="Q23">
+        <v>0.1374844020622223</v>
+      </c>
+      <c r="R23">
+        <v>1.23735961856</v>
+      </c>
+      <c r="S23">
+        <v>0.01489778304404468</v>
+      </c>
+      <c r="T23">
+        <v>0.01489778304404468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3640106666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.092032</v>
+      </c>
+      <c r="I24">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="J24">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.874378333333333</v>
+      </c>
+      <c r="N24">
+        <v>14.623135</v>
+      </c>
+      <c r="O24">
+        <v>0.6283321156816507</v>
+      </c>
+      <c r="P24">
+        <v>0.6283321156816508</v>
+      </c>
+      <c r="Q24">
+        <v>1.774325706702222</v>
+      </c>
+      <c r="R24">
+        <v>15.96893136032</v>
+      </c>
+      <c r="S24">
+        <v>0.1922655881789249</v>
+      </c>
+      <c r="T24">
+        <v>0.1922655881789249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3640106666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.092032</v>
+      </c>
+      <c r="I25">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="J25">
+        <v>0.3059935715212395</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7039943333333333</v>
+      </c>
+      <c r="N25">
+        <v>2.111983</v>
+      </c>
+      <c r="O25">
+        <v>0.09074844393310187</v>
+      </c>
+      <c r="P25">
+        <v>0.09074844393310189</v>
+      </c>
+      <c r="Q25">
+        <v>0.2562614466062222</v>
+      </c>
+      <c r="R25">
+        <v>2.306353019456</v>
+      </c>
+      <c r="S25">
+        <v>0.0277684404690848</v>
+      </c>
+      <c r="T25">
+        <v>0.0277684404690848</v>
       </c>
     </row>
   </sheetData>
